--- a/biology/Zoologie/Allotrie_verte/Allotrie_verte.xlsx
+++ b/biology/Zoologie/Allotrie_verte/Allotrie_verte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pteruthius xanthochlorus
 L’Allotrie verte (Pteruthius xanthochlorus) est une espèce de passereaux de la famille des Vireonidae.
@@ -512,10 +524,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les zones montagneuses forestières de l'Himalaya, du Patkai et du Centre/Est de la Chine.
-Il se rencontre au Bhoutan, en Birmanie, en Chine, en Inde, au Népal, au Pakistan et au Viêt Nam[1].
+Il se rencontre au Bhoutan, en Birmanie, en Chine, en Inde, au Népal, au Pakistan et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 août 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 août 2023) :
 Pteruthius xanthochlorus hybrida Harington, 1913
 Pteruthius xanthochlorus occidentalis Harington, 1913
 Pteruthius xanthochlorus pallidus (David, 1871)
@@ -578,10 +594,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Pteruthius xanthochlorus J.E.Gray &amp; G.R.Gray, 1847[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Allotrie verte[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Pteruthius xanthochlorus J.E.Gray &amp; G.R.Gray, 1847.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Allotrie verte.
 </t>
         </is>
       </c>
